--- a/Requirement.Mapping.xlsx
+++ b/Requirement.Mapping.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="17175" windowHeight="9465"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="17175" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RTM" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
-  <si>
-    <t>Requirements</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -51,12 +48,6 @@
     <t>CMS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Impact</t>
-  </si>
-  <si>
-    <t>DB Changes</t>
-  </si>
-  <si>
     <t>File Changes</t>
   </si>
   <si>
@@ -228,7 +219,115 @@
     <t>prithivi &amp; Prakash</t>
   </si>
   <si>
-    <t>Effort (hours)</t>
+    <t>UI will be changed to tab or pill to display levels under each section. Hard coded values for section Id will be changed</t>
+  </si>
+  <si>
+    <t>Requirement Id</t>
+  </si>
+  <si>
+    <t>Pagination will be included in all the pages which has tables where user can sort and search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Impact/ understanding</t>
+  </si>
+  <si>
+    <t>Faculty code will be created for only one Exam at a time. Batch Id can be used only once by the faculty. New table will be created to map faculty Id and batch id. Batch Id wise grouping should be made in faculty report page. Adding two more feature for each batch to enable and disable unused codes.</t>
+  </si>
+  <si>
+    <t>s_faculty_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_user_exam_level, </t>
+  </si>
+  <si>
+    <t>user exam level table should be used instead of user exam table to retrieve section levels for each user(referral). Only 20 users should be retrieved at a time "click more" option to load more</t>
+  </si>
+  <si>
+    <t>configuration should be made for each exam separately. Exam Id should be mapped in all the places where s_configuration table is used.</t>
+  </si>
+  <si>
+    <t>s_configuration</t>
+  </si>
+  <si>
+    <t>Existing defect in the application</t>
+  </si>
+  <si>
+    <t>alignment fixes will be done for selected screens. It will be provided later</t>
+  </si>
+  <si>
+    <t>Sign up Procedure should be called</t>
+  </si>
+  <si>
+    <t>Allowing student to join more than one course by providing provinces to add the faculty code. Sign Up operation should be performed. Impact will be checked before reusing the code.</t>
+  </si>
+  <si>
+    <t>No table changes</t>
+  </si>
+  <si>
+    <t>Exam Id will be used to map the help topics in UI. Common help topics are introced with the help of exam type as common.</t>
+  </si>
+  <si>
+    <t>Tables used</t>
+  </si>
+  <si>
+    <t>Partiaclly Completed</t>
+  </si>
+  <si>
+    <t>Completed and tesing is pending</t>
+  </si>
+  <si>
+    <t>yet to start</t>
+  </si>
+  <si>
+    <t>UI alignment fix</t>
+  </si>
+  <si>
+    <t>Edit Test</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Faculty Report</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Req Id</t>
+  </si>
+  <si>
+    <t>user exam level mapping</t>
+  </si>
+  <si>
+    <t>Grid change</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Analysis (hours)</t>
+  </si>
+  <si>
+    <t>Design (hours)</t>
+  </si>
+  <si>
+    <t>coding (hours)</t>
+  </si>
+  <si>
+    <t>Testing (hours)</t>
+  </si>
+  <si>
+    <t>Status (hours)</t>
   </si>
 </sst>
 </file>
@@ -244,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,15 +352,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -270,12 +440,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,430 +788,846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I65"/>
+  <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="17"/>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="17"/>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="17"/>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="17"/>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="17"/>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1">
+      <c r="B11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="17"/>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="C4" s="2" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="17"/>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="17"/>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="17"/>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="18"/>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="C5" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="17"/>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="17"/>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="17"/>
+      <c r="C23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="18"/>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5">
+      <c r="C26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="17"/>
+      <c r="C27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="16">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="17"/>
+      <c r="C31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="17"/>
+      <c r="C32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="17"/>
+      <c r="C34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="17"/>
+      <c r="C35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="17"/>
+      <c r="C36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="17"/>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="17"/>
+      <c r="C38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="17"/>
+      <c r="C39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="17"/>
+      <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="17"/>
+      <c r="C42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="18"/>
+      <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="2"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="16">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="17"/>
+      <c r="C46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="18"/>
+      <c r="C49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="2"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="16">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="17"/>
+      <c r="C52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="17"/>
+      <c r="C53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="17"/>
+      <c r="C54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="17"/>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="17"/>
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="18"/>
+      <c r="C57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="2"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="16"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="90">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="C16" t="s">
+      <c r="C59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="17"/>
+      <c r="C60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="17"/>
+      <c r="C61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="17"/>
+      <c r="C62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="18"/>
+      <c r="C63" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="2"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" ht="45">
+      <c r="B65" s="22">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
-        <v>64</v>
-      </c>
-      <c r="I61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="C62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" t="s">
-        <v>31</v>
-      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="G58:G63"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G30:G43"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B43"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="E30:E43"/>
+    <mergeCell ref="F30:F43"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="D26:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1001,12 +1635,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30">
+      <c r="B7" s="22">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30">
+      <c r="B8" s="22">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="22">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="22">
+        <v>7</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="22">
+        <v>8</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Requirement.Mapping.xlsx
+++ b/Requirement.Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="17175" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="17175" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>Status (hours)</t>
+  </si>
+  <si>
+    <t>practicetest.jsp</t>
+  </si>
+  <si>
+    <t>practicetest.js</t>
+  </si>
+  <si>
+    <t>New File</t>
+  </si>
+  <si>
+    <t>practicetest.css</t>
   </si>
 </sst>
 </file>
@@ -445,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -458,14 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -485,14 +494,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H65"/>
+  <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,14 +814,14 @@
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -828,201 +840,213 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="16">
+    <row r="3" spans="2:9">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="17"/>
-      <c r="C4" s="11" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="16"/>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="17"/>
-      <c r="C5" s="11" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="16"/>
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="17"/>
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="16"/>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="17"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="16"/>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="17"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="16"/>
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="18"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="17"/>
+      <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:9">
       <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1">
-      <c r="B11" s="16">
+    <row r="11" spans="2:9" ht="30" customHeight="1">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="17"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="17"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" s="16"/>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="17"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" s="16"/>
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="17"/>
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="16"/>
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="17"/>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="16"/>
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="17"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="18"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1030,73 +1054,73 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="17"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="17"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="17"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="18"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1104,51 +1128,51 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="17"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="18"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="2"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1156,172 +1180,172 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>5</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>72</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="17"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="17"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="17"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="17"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="17"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="17"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="17"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="17"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="17"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="17"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="17"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="17"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="17"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="17"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="18"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="18"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="2"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1329,73 +1353,73 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <v>6</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="17"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="17"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="17"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="18"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="18"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="2"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1403,167 +1427,167 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>7</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>79</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="17"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="16"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="17"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="17"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="17"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="17"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="18"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="18"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="2"/>
-      <c r="C58" s="8"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>8</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="17"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="17"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="17"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="17"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="17"/>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="17"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="16"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="18"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="17"/>
+      <c r="C63" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="2"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -1571,7 +1595,7 @@
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" ht="45">
-      <c r="B65" s="22">
+      <c r="B65" s="12">
         <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1581,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="2"/>
@@ -1589,6 +1613,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B43"/>
+    <mergeCell ref="D30:D43"/>
+    <mergeCell ref="E30:E43"/>
+    <mergeCell ref="F30:F43"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="D26:D28"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="B51:B57"/>
     <mergeCell ref="B59:B63"/>
@@ -1605,28 +1651,6 @@
     <mergeCell ref="G30:G43"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B43"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="E30:E43"/>
-    <mergeCell ref="F30:F43"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="D26:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1637,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1675,10 +1699,10 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="22">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="2">
@@ -1698,10 +1722,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="22">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="2">
@@ -1721,10 +1745,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="B7" s="22">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="2">
@@ -1744,10 +1768,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="22">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="2">
@@ -1762,15 +1786,15 @@
       <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="22">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="2">
@@ -1790,10 +1814,10 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="22">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="2">
@@ -1813,10 +1837,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="22">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="2">
@@ -1836,10 +1860,10 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="22">
+      <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="2">
@@ -1859,10 +1883,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="22">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="2">
